--- a/me_demo/py55Api/test_data/case_data.xlsx
+++ b/me_demo/py55Api/test_data/case_data.xlsx
@@ -44,7 +44,7 @@
   <si>
     <t>{
             "t": "",
-            "principal": #username#,
+            "principal": "#username#",
             "credentials": "123456a",
             "sessionUUID": #sessionUUID#,
             "imageCode": "lemon"        
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>

--- a/me_demo/py55Api/test_data/case_data.xlsx
+++ b/me_demo/py55Api/test_data/case_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>data</t>
+  </si>
+  <si>
+    <t>expect_data</t>
   </si>
   <si>
     <t>登录-成功</t>
@@ -46,9 +49,27 @@
             "t": "",
             "principal": "#username#",
             "credentials": "123456a",
-            "sessionUUID": #sessionUUID#,
+            "sessionUUID": "#sessionUUID#",
             "imageCode": "lemon"        
         }</t>
+  </si>
+  <si>
+    <t>{"token_type": "bearer"}</t>
+  </si>
+  <si>
+    <t>登录-密码错误</t>
+  </si>
+  <si>
+    <t>{
+            "t": "",
+            "principal": "#username#",
+            "credentials": "123456",
+            "sessionUUID": "#sessionUUID#",
+            "imageCode": "lemon"        
+        }</t>
+  </si>
+  <si>
+    <t>{"response": "账号或密码不正确"}</t>
   </si>
 </sst>
 </file>
@@ -1022,20 +1043,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="3" width="12.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="21.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="12.4444444444444" customWidth="1"/>
     <col min="4" max="4" width="42.1111111111111" customWidth="1"/>
     <col min="5" max="5" width="60.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="25.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1051,27 +1074,54 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" ht="192" customHeight="1" spans="1:5">
+    <row r="2" ht="192" customHeight="1" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="192" customHeight="1" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="http://mall.lemonban.com:8108/adminLogin" tooltip="http://mall.lemonban.com:8108/adminLogin"/>
+    <hyperlink ref="D3" r:id="rId1" display="http://mall.lemonban.com:8108/adminLogin" tooltip="http://mall.lemonban.com:8108/adminLogin"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/me_demo/py55Api/test_data/case_data.xlsx
+++ b/me_demo/py55Api/test_data/case_data.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300"/>
+    <workbookView windowWidth="22368" windowHeight="9300" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="upload" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -24,6 +24,9 @@
     <t>title</t>
   </si>
   <si>
+    <t>is_upload</t>
+  </si>
+  <si>
     <t>method</t>
   </si>
   <si>
@@ -34,6 +37,9 @@
   </si>
   <si>
     <t>expect_data</t>
+  </si>
+  <si>
+    <t>extract_data</t>
   </si>
   <si>
     <t>登录-成功</t>
@@ -70,6 +76,15 @@
   </si>
   <si>
     <t>{"response": "账号或密码不正确"}</t>
+  </si>
+  <si>
+    <t>{"access_token":"$..access_token"}</t>
+  </si>
+  <si>
+    <t>上传图片</t>
+  </si>
+  <si>
+    <t>http://mall.lemonban.com:8108/admin/file/upload/img</t>
   </si>
 </sst>
 </file>
@@ -99,6 +114,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -122,14 +145,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,10 +558,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -555,16 +570,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,13 +588,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,13 +615,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -618,10 +633,10 @@
     <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -636,56 +651,56 @@
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -694,6 +709,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1043,22 +1061,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="21.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="12.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="42.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="60.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="25.2222222222222" customWidth="1"/>
+    <col min="2" max="3" width="21.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="12.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="42.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="60.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="25.2222222222222" customWidth="1"/>
+    <col min="8" max="8" width="19.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1077,51 +1096,57 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" ht="192" customHeight="1" spans="1:6">
+    <row r="2" ht="192" customHeight="1" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" ht="192" customHeight="1" spans="1:6">
+    <row r="3" ht="192" customHeight="1" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://mall.lemonban.com:8108/adminLogin" tooltip="http://mall.lemonban.com:8108/adminLogin"/>
-    <hyperlink ref="D3" r:id="rId1" display="http://mall.lemonban.com:8108/adminLogin" tooltip="http://mall.lemonban.com:8108/adminLogin"/>
+    <hyperlink ref="E2" r:id="rId1" display="http://mall.lemonban.com:8108/adminLogin" tooltip="http://mall.lemonban.com:8108/adminLogin"/>
+    <hyperlink ref="E3" r:id="rId1" display="http://mall.lemonban.com:8108/adminLogin" tooltip="http://mall.lemonban.com:8108/adminLogin"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1132,14 +1157,96 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="10.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="15.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="16.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="17.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="55.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="39.2222222222222" customWidth="1"/>
+    <col min="7" max="7" width="25.8888888888889" customWidth="1"/>
+    <col min="8" max="8" width="35.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="192" customHeight="1" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="http://mall.lemonban.com:8108/adminLogin" tooltip="http://mall.lemonban.com:8108/adminLogin"/>
+    <hyperlink ref="E3" r:id="rId2" display="http://mall.lemonban.com:8108/admin/file/upload/img"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/me_demo/py55Api/test_data/case_data.xlsx
+++ b/me_demo/py55Api/test_data/case_data.xlsx
@@ -9,14 +9,13 @@
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="upload" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -36,10 +35,13 @@
     <t>data</t>
   </si>
   <si>
-    <t>expect_data</t>
+    <t>expected_data</t>
   </si>
   <si>
     <t>extract_data</t>
+  </si>
+  <si>
+    <t>assert_db</t>
   </si>
   <si>
     <t>登录-成功</t>
@@ -85,6 +87,15 @@
   </si>
   <si>
     <t>http://mall.lemonban.com:8108/admin/file/upload/img</t>
+  </si>
+  <si>
+    <t>{"file_path":"$..response"}</t>
+  </si>
+  <si>
+    <t>{
+"expect_data":1,
+"actual_data":"SELECT COUNT(*) FROM tz_attach_file WHERE file_path = '#file_path#'"
+}</t>
   </si>
 </sst>
 </file>
@@ -1061,13 +1072,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
     <col min="2" max="3" width="21.4444444444444" customWidth="1"/>
     <col min="4" max="4" width="12.4444444444444" customWidth="1"/>
@@ -1075,9 +1086,10 @@
     <col min="6" max="6" width="60.1111111111111" customWidth="1"/>
     <col min="7" max="7" width="25.2222222222222" customWidth="1"/>
     <col min="8" max="8" width="19.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="18.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1101,6 +1113,9 @@
       </c>
       <c r="H1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" ht="192" customHeight="1" spans="1:7">
@@ -1108,19 +1123,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" ht="192" customHeight="1" spans="1:7">
@@ -1128,19 +1143,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1157,25 +1172,26 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H8:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="10.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="15.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="16.7777777777778" customWidth="1"/>
     <col min="4" max="4" width="17.4444444444444" customWidth="1"/>
-    <col min="5" max="5" width="55.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="39.2222222222222" customWidth="1"/>
-    <col min="7" max="7" width="25.8888888888889" customWidth="1"/>
-    <col min="8" max="8" width="35.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="53.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="30.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="21.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="42.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="48.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1199,6 +1215,9 @@
       </c>
       <c r="H1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" ht="192" customHeight="1" spans="1:8">
@@ -1206,41 +1225,47 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" ht="72" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2"/>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1251,21 +1276,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/me_demo/py55Api/test_data/case_data.xlsx
+++ b/me_demo/py55Api/test_data/case_data.xlsx
@@ -92,8 +92,7 @@
     <t>{"file_path":"$..response"}</t>
   </si>
   <si>
-    <t>{
-"expect_data":1,
+    <t>{"expect_data":1,
 "actual_data":"SELECT COUNT(*) FROM tz_attach_file WHERE file_path = '#file_path#'"
 }</t>
   </si>
@@ -1175,7 +1174,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H8:H9"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1243,7 +1242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" ht="72" spans="1:9">
+    <row r="3" ht="57.6" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
